--- a/dist/document/dest/2020/10/doctors/172.xlsx
+++ b/dist/document/dest/2020/10/doctors/172.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>1363</v>
       </c>
-      <c r="C2" s="1">
-        <v>13493700</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>180000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>3370</v>
       </c>
-      <c r="C4" s="1">
-        <v>17439750</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -438,7 +429,7 @@
         <v>4734</v>
       </c>
       <c r="C5" s="1">
-        <v>31113450</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/172.xlsx
+++ b/dist/document/dest/2020/10/doctors/172.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,39 +402,191 @@
         <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>1363</v>
+        <v>100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>990000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Progestogel Pm</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>594000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Seromin (Vitamin A, C, E)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>3370</v>
+        <v>54</v>
+      </c>
+      <c r="C4" s="1">
+        <v>534600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B5" s="1">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1">
+        <v>970200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B6" s="1">
+        <v>662</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6553800</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Clatab (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B8" s="1">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Clatab (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Clatab (Clarithromycin 500mg)</v>
+      </c>
+      <c r="B10" s="1">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>539000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Progestogel Pm</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B12" s="1">
+        <v>300</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1552500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B13" s="1">
+        <v>120</v>
+      </c>
+      <c r="C13" s="1">
+        <v>621000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B14" s="1">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1484</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7679700</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B16" s="1">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1">
+        <v>672750</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B17" s="1">
+        <v>194</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1003950</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B5" s="1">
-        <v>4734</v>
-      </c>
-      <c r="C5" s="1">
-        <v>NaN</v>
+      <c r="B18" s="1">
+        <v>3409</v>
+      </c>
+      <c r="C18" s="1">
+        <v>23376900</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
   </ignoredErrors>
 </worksheet>
 </file>